--- a/hall_of_fame.xlsx
+++ b/hall_of_fame.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks_hall_of_fame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72814890-5DAC-4E02-B1CB-6EB7A17CF61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D1742E-F8EB-4820-B688-2CEED383A0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="4230" windowWidth="21600" windowHeight="11250" xr2:uid="{78BDC05C-5D94-4C11-95C7-B3A2824BBBF0}"/>
+    <workbookView xWindow="2700" yWindow="2040" windowWidth="21600" windowHeight="11250" xr2:uid="{78BDC05C-5D94-4C11-95C7-B3A2824BBBF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,94 +42,94 @@
     <t>CollectorName</t>
   </si>
   <si>
+    <t>Total_Minifigs</t>
+  </si>
+  <si>
+    <t>Total_Points</t>
+  </si>
+  <si>
+    <t>Special_Title</t>
+  </si>
+  <si>
+    <t>Special_Emblem</t>
+  </si>
+  <si>
+    <t>Minifig_Milestone</t>
+  </si>
+  <si>
+    <t>Points_Milestone</t>
+  </si>
+  <si>
+    <t>ProfileImage</t>
+  </si>
+  <si>
+    <t>LastUpdated</t>
+  </si>
+  <si>
+    <t>Shinobi</t>
+  </si>
+  <si>
+    <t>profile gold.jpg</t>
+  </si>
+  <si>
+    <t>profile silver.jpg</t>
+  </si>
+  <si>
+    <t>profile bronze.jpg</t>
+  </si>
+  <si>
+    <t>profile normal.jpg</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>Luffy</t>
+  </si>
+  <si>
+    <t>Yonkou</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>ninja_98</t>
+  </si>
+  <si>
+    <t>Ichigo</t>
+  </si>
+  <si>
+    <t>spectre_78</t>
+  </si>
+  <si>
+    <t>bankai_34</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>playboy</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
+    <t>speedboi</t>
+  </si>
+  <si>
+    <t>Big_league</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>Beginner</t>
+  </si>
+  <si>
     <t>Nickname</t>
-  </si>
-  <si>
-    <t>Total_Minifigs</t>
-  </si>
-  <si>
-    <t>Total_Points</t>
-  </si>
-  <si>
-    <t>Special_Title</t>
-  </si>
-  <si>
-    <t>Special_Emblem</t>
-  </si>
-  <si>
-    <t>Minifig_Milestone</t>
-  </si>
-  <si>
-    <t>Points_Milestone</t>
-  </si>
-  <si>
-    <t>ProfileImage</t>
-  </si>
-  <si>
-    <t>LastUpdated</t>
-  </si>
-  <si>
-    <t>Shinobi</t>
-  </si>
-  <si>
-    <t>profile gold.jpg</t>
-  </si>
-  <si>
-    <t>profile silver.jpg</t>
-  </si>
-  <si>
-    <t>profile bronze.jpg</t>
-  </si>
-  <si>
-    <t>profile normal.jpg</t>
-  </si>
-  <si>
-    <t>—</t>
-  </si>
-  <si>
-    <t>Luffy</t>
-  </si>
-  <si>
-    <t>Yonkou</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
-    <t>ninja_98</t>
-  </si>
-  <si>
-    <t>Ichigo</t>
-  </si>
-  <si>
-    <t>spectre_78</t>
-  </si>
-  <si>
-    <t>bankai_34</t>
-  </si>
-  <si>
-    <t>Tony</t>
-  </si>
-  <si>
-    <t>playboy</t>
-  </si>
-  <si>
-    <t>Barry</t>
-  </si>
-  <si>
-    <t>speedboi</t>
-  </si>
-  <si>
-    <t>Big_league</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Bronze</t>
-  </si>
-  <si>
-    <t>Beginner</t>
   </si>
 </sst>
 </file>
@@ -512,7 +512,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,31 +538,31 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -570,10 +570,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4">
         <v>27</v>
@@ -582,19 +582,19 @@
         <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="5">
         <v>45973</v>
@@ -605,10 +605,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="4">
         <v>16</v>
@@ -617,19 +617,19 @@
         <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
-        <v>31</v>
-      </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3" s="5">
         <v>45974</v>
@@ -640,10 +640,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4">
         <v>6</v>
@@ -652,16 +652,16 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4" s="5">
         <v>45975</v>
@@ -672,10 +672,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -684,16 +684,16 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K5" s="5">
         <v>45976</v>
@@ -704,10 +704,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -716,19 +716,19 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" s="5">
         <v>45977</v>

--- a/hall_of_fame.xlsx
+++ b/hall_of_fame.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks_hall_of_fame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D1742E-F8EB-4820-B688-2CEED383A0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBDF625-36E6-4350-A001-36237DCE5DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="2040" windowWidth="21600" windowHeight="11250" xr2:uid="{78BDC05C-5D94-4C11-95C7-B3A2824BBBF0}"/>
+    <workbookView xWindow="4530" yWindow="2355" windowWidth="21600" windowHeight="11250" xr2:uid="{78BDC05C-5D94-4C11-95C7-B3A2824BBBF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
-  <si>
-    <t>Rank</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>CollectorName</t>
   </si>
@@ -54,82 +51,85 @@
     <t>Special_Emblem</t>
   </si>
   <si>
-    <t>Minifig_Milestone</t>
-  </si>
-  <si>
-    <t>Points_Milestone</t>
-  </si>
-  <si>
     <t>ProfileImage</t>
   </si>
   <si>
     <t>LastUpdated</t>
   </si>
   <si>
-    <t>Shinobi</t>
-  </si>
-  <si>
-    <t>profile gold.jpg</t>
-  </si>
-  <si>
-    <t>profile silver.jpg</t>
-  </si>
-  <si>
-    <t>profile bronze.jpg</t>
-  </si>
-  <si>
     <t>profile normal.jpg</t>
   </si>
   <si>
     <t>—</t>
   </si>
   <si>
-    <t>Luffy</t>
-  </si>
-  <si>
-    <t>Yonkou</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
-    <t>ninja_98</t>
-  </si>
-  <si>
-    <t>Ichigo</t>
-  </si>
-  <si>
-    <t>spectre_78</t>
-  </si>
-  <si>
-    <t>bankai_34</t>
-  </si>
-  <si>
-    <t>Tony</t>
-  </si>
-  <si>
-    <t>playboy</t>
-  </si>
-  <si>
-    <t>Barry</t>
-  </si>
-  <si>
-    <t>speedboi</t>
-  </si>
-  <si>
-    <t>Big_league</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Bronze</t>
-  </si>
-  <si>
-    <t>Beginner</t>
-  </si>
-  <si>
     <t>Nickname</t>
+  </si>
+  <si>
+    <t>Sakib</t>
+  </si>
+  <si>
+    <t>goku180524</t>
+  </si>
+  <si>
+    <t>Tanjim</t>
+  </si>
+  <si>
+    <t>S.M Taseen Wahid</t>
+  </si>
+  <si>
+    <t>taseen223547</t>
+  </si>
+  <si>
+    <t>Tahseen Hyder</t>
+  </si>
+  <si>
+    <t>dhrubii194621</t>
+  </si>
+  <si>
+    <t>Tahsin Huq</t>
+  </si>
+  <si>
+    <t>Xhoul201435</t>
+  </si>
+  <si>
+    <t>Falguni Das</t>
+  </si>
+  <si>
+    <t>Sadaf Sadman Ali</t>
+  </si>
+  <si>
+    <t>Abdullah Al Mamun</t>
+  </si>
+  <si>
+    <t>Ahtam Aanon</t>
+  </si>
+  <si>
+    <t>Shehzad Imtiaz</t>
+  </si>
+  <si>
+    <t>Fahim</t>
+  </si>
+  <si>
+    <t>tan212036</t>
+  </si>
+  <si>
+    <t>prime215701</t>
+  </si>
+  <si>
+    <t>ali121631</t>
+  </si>
+  <si>
+    <t>mamun125357</t>
+  </si>
+  <si>
+    <t>aan145440</t>
+  </si>
+  <si>
+    <t>phantom161256</t>
+  </si>
+  <si>
+    <t>mimr204555</t>
   </si>
 </sst>
 </file>
@@ -509,36 +509,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6460CF-3B38-4B58-B187-39367883653E}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
-    <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -555,183 +552,258 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="5">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="5">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="5">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="5">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="5">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4">
-        <v>27</v>
-      </c>
-      <c r="E2" s="4">
-        <v>57</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="5">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="5">
-        <v>45973</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4">
-        <v>16</v>
-      </c>
-      <c r="E3" s="4">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="5">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="5">
-        <v>45974</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="4">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="5">
-        <v>45975</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="5">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="5">
-        <v>45976</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="5">
-        <v>45977</v>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="5">
+        <v>45992</v>
       </c>
     </row>
   </sheetData>

--- a/hall_of_fame.xlsx
+++ b/hall_of_fame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks_hall_of_fame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBDF625-36E6-4350-A001-36237DCE5DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB76AAF-922A-46B4-85D3-EC6D29BC1FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4530" yWindow="2355" windowWidth="21600" windowHeight="11250" xr2:uid="{78BDC05C-5D94-4C11-95C7-B3A2824BBBF0}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>CollectorName</t>
   </si>
@@ -130,6 +130,24 @@
   </si>
   <si>
     <t>mimr204555</t>
+  </si>
+  <si>
+    <t>Saif Zahan Shopno</t>
+  </si>
+  <si>
+    <t>Rubab Momen</t>
+  </si>
+  <si>
+    <t>Rahim Khan</t>
+  </si>
+  <si>
+    <t>rahim009900</t>
+  </si>
+  <si>
+    <t>kuro770335</t>
+  </si>
+  <si>
+    <t>warheart666932</t>
   </si>
 </sst>
 </file>
@@ -509,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6460CF-3B38-4B58-B187-39367883653E}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,7 +591,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="5">
-        <v>45992</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -596,7 +614,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="5">
-        <v>45992</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -619,7 +637,7 @@
         <v>7</v>
       </c>
       <c r="H4" s="5">
-        <v>45992</v>
+        <v>45975</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -642,7 +660,7 @@
         <v>7</v>
       </c>
       <c r="H5" s="5">
-        <v>45992</v>
+        <v>45976</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -665,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="H6" s="5">
-        <v>45992</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -688,7 +706,7 @@
         <v>7</v>
       </c>
       <c r="H7" s="5">
-        <v>45992</v>
+        <v>45980</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -711,7 +729,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="5">
-        <v>45992</v>
+        <v>45983</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -734,7 +752,7 @@
         <v>7</v>
       </c>
       <c r="H9" s="5">
-        <v>45992</v>
+        <v>45983</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -745,10 +763,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -757,7 +775,7 @@
         <v>7</v>
       </c>
       <c r="H10" s="5">
-        <v>45992</v>
+        <v>45983</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -780,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="5">
-        <v>45992</v>
+        <v>45983</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -803,6 +821,75 @@
         <v>7</v>
       </c>
       <c r="H12" s="5">
+        <v>45986</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="5">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="5">
+        <v>45992</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="5">
         <v>45992</v>
       </c>
     </row>

--- a/hall_of_fame.xlsx
+++ b/hall_of_fame.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks_hall_of_fame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB76AAF-922A-46B4-85D3-EC6D29BC1FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E0557B-2321-4B9B-87D5-B3A9F491729A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="2355" windowWidth="21600" windowHeight="11250" xr2:uid="{78BDC05C-5D94-4C11-95C7-B3A2824BBBF0}"/>
+    <workbookView xWindow="7200" yWindow="3405" windowWidth="21600" windowHeight="11250" xr2:uid="{78BDC05C-5D94-4C11-95C7-B3A2824BBBF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>CollectorName</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>warheart666932</t>
+  </si>
+  <si>
+    <t>Hemel</t>
+  </si>
+  <si>
+    <t>hemel429257</t>
   </si>
 </sst>
 </file>
@@ -196,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -213,6 +219,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6460CF-3B38-4B58-B187-39367883653E}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,6 +900,29 @@
         <v>45992</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="6">
+        <v>45993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/hall_of_fame.xlsx
+++ b/hall_of_fame.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks_hall_of_fame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E0557B-2321-4B9B-87D5-B3A9F491729A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26C687C-4853-455E-AB0D-3E176C41C4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="3405" windowWidth="21600" windowHeight="11250" xr2:uid="{78BDC05C-5D94-4C11-95C7-B3A2824BBBF0}"/>
+    <workbookView xWindow="6075" yWindow="2085" windowWidth="21600" windowHeight="11250" xr2:uid="{78BDC05C-5D94-4C11-95C7-B3A2824BBBF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>CollectorName</t>
   </si>
@@ -120,9 +120,6 @@
     <t>ali121631</t>
   </si>
   <si>
-    <t>mamun125357</t>
-  </si>
-  <si>
     <t>aan145440</t>
   </si>
   <si>
@@ -154,13 +151,28 @@
   </si>
   <si>
     <t>hemel429257</t>
+  </si>
+  <si>
+    <t>law125357</t>
+  </si>
+  <si>
+    <t>Fardeen Sikder Labib</t>
+  </si>
+  <si>
+    <t>fardeen200221</t>
+  </si>
+  <si>
+    <t>Omor Ibn Fazle Rabbi</t>
+  </si>
+  <si>
+    <t>bnoifr200641</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +192,17 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF434343"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -202,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -220,6 +243,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,15 +559,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6460CF-3B38-4B58-B187-39367883653E}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" style="4" customWidth="1"/>
@@ -724,10 +749,10 @@
         <v>27</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -744,13 +769,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -767,7 +792,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
@@ -790,7 +815,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -813,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -833,10 +858,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
@@ -856,10 +881,10 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
@@ -879,10 +904,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
         <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -902,10 +927,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
@@ -921,6 +946,52 @@
       </c>
       <c r="H16" s="6">
         <v>45993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="6">
+        <v>45996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="6">
+        <v>45996</v>
       </c>
     </row>
   </sheetData>

--- a/hall_of_fame.xlsx
+++ b/hall_of_fame.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks_hall_of_fame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26C687C-4853-455E-AB0D-3E176C41C4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4EFDB0-5B8B-45E0-AB2F-1ACE9C81FE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6075" yWindow="2085" windowWidth="21600" windowHeight="11250" xr2:uid="{78BDC05C-5D94-4C11-95C7-B3A2824BBBF0}"/>
   </bookViews>
@@ -200,9 +200,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF434343"/>
-      <name val="Roboto"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -562,7 +564,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,10 +751,10 @@
         <v>27</v>
       </c>
       <c r="C8" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -772,10 +774,10 @@
         <v>39</v>
       </c>
       <c r="C9" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D9" s="4">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -910,10 +912,10 @@
         <v>34</v>
       </c>
       <c r="C15" s="4">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D15" s="4">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
         <v>8</v>

--- a/hall_of_fame.xlsx
+++ b/hall_of_fame.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\blocks_hall_of_fame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4EFDB0-5B8B-45E0-AB2F-1ACE9C81FE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD8320B-1E81-4E12-832D-CB1079AB8D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="2085" windowWidth="21600" windowHeight="11250" xr2:uid="{78BDC05C-5D94-4C11-95C7-B3A2824BBBF0}"/>
+    <workbookView xWindow="4305" yWindow="960" windowWidth="21600" windowHeight="11250" xr2:uid="{78BDC05C-5D94-4C11-95C7-B3A2824BBBF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>CollectorName</t>
   </si>
@@ -166,6 +166,18 @@
   </si>
   <si>
     <t>bnoifr200641</t>
+  </si>
+  <si>
+    <t>Sam Utsho</t>
+  </si>
+  <si>
+    <t>sayexed290501</t>
+  </si>
+  <si>
+    <t>Anan Haque</t>
+  </si>
+  <si>
+    <t>ananhaque775606</t>
   </si>
 </sst>
 </file>
@@ -561,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A6460CF-3B38-4B58-B187-39367883653E}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,6 +1008,52 @@
         <v>45996</v>
       </c>
     </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="6">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H20" s="6">
+        <v>45690</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
